--- a/PhanCongQLTV.xlsx
+++ b/PhanCongQLTV.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\QLThuVienNew\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\QLThuVien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,25 +50,25 @@
     <t>Xây dựng hệ thống quản lý thư viện HVKTQS</t>
   </si>
   <si>
-    <t>Xây dựng module thống kê mượn trả,viết thủ tục,làm chức năng thêm,sửa,xóa,tìm kiếm thông tin mượn trả</t>
-  </si>
-  <si>
     <t>Xây dựng module thống kê độc giả,viết thủ tục,làm chức năng thêm,sửa,xóa,tìm kiếm thông tin độc giả</t>
   </si>
   <si>
-    <t>Xây dựng module thống kê tác phẩm,viết thủ tục, làm chức năng thêm,sửa,xóa,tìm kiếm thông tin tác phẩm</t>
-  </si>
-  <si>
     <t>Xây dựng tài liệu hướng dẫn cài đặt,vận hành,ghép nối modul,chạy kiểm thử phần mềm</t>
   </si>
   <si>
     <t>Xây dựng module hướng dẫn sử dụng(menu,help,F1)</t>
   </si>
   <si>
-    <t>Xây dựng modul thống kê tự động cập nhật CSDL sách đã cho mượn,còn lại (Mã sách,Tên sách,số lượng đã mượn,số lượng còn lại)</t>
-  </si>
-  <si>
     <t>Xây dựng module thống kê phiếu nhập, quản lý phiếu nhập; viết thủ tục, hàm liên quan đến phiếu nhập; tìm kiếm Nhân viên</t>
+  </si>
+  <si>
+    <t>Xây dựng module thống kê tác phẩm,viết thủ tục, làm chức năng thêm,sửa,xóa,tìm kiếm Lĩnh vực</t>
+  </si>
+  <si>
+    <t>Xây dựng module thống kê mượn trả,viết thủ tục,làm chức năng thêm,sửa,xóa,tìm kiếm thông tin Mượn</t>
+  </si>
+  <si>
+    <t>Xây dựng module thống kê phiếu nhập, quản lý phiếu nhập; viết thủ tục, hàm liên quan đến phiếu nhập; tìm kiếm NXB</t>
   </si>
 </sst>
 </file>
@@ -133,16 +133,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +427,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,256 +456,256 @@
       <c r="A2" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>4.2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4.3</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4.5</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>4.7</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>4.8</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="B16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -745,19 +745,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:J9"/>
-    <mergeCell ref="K8:K9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B16:J17"/>
     <mergeCell ref="K14:K15"/>
@@ -769,6 +756,19 @@
     <mergeCell ref="B12:J13"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
